--- a/Recupere Donnees_Ublox/Filesxlsx/Donnees_Ephem.xlsx
+++ b/Recupere Donnees_Ublox/Filesxlsx/Donnees_Ephem.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -63,9 +63,9 @@
     <col min="2" max="2" width="6.90625" customWidth="true"/>
     <col min="3" max="3" width="14.453125" customWidth="true"/>
     <col min="4" max="4" width="12.453125" customWidth="true"/>
-    <col min="5" max="5" width="13.08984375" customWidth="true"/>
-    <col min="6" max="6" width="12.453125" customWidth="true"/>
-    <col min="7" max="7" width="12.08984375" customWidth="true"/>
+    <col min="5" max="5" width="13.453125" customWidth="true"/>
+    <col min="6" max="6" width="12.08984375" customWidth="true"/>
+    <col min="7" max="7" width="13.08984375" customWidth="true"/>
     <col min="8" max="8" width="15.7265625" customWidth="true"/>
     <col min="9" max="9" width="15.7265625" customWidth="true"/>
     <col min="10" max="10" width="15.08984375" customWidth="true"/>
@@ -90,64 +90,64 @@
         <v>10</v>
       </c>
       <c r="B1" s="0">
-        <v>590384</v>
+        <v>129600</v>
       </c>
       <c r="C1" s="0">
-        <v>0.010933308862149715</v>
+        <v>0.010938980034552515</v>
       </c>
       <c r="D1" s="0">
-        <v>0.9920301721414424</v>
+        <v>0.9920519111041004</v>
       </c>
       <c r="E1" s="0">
-        <v>-0.6627027471780178</v>
+        <v>-0.78420718277118184</v>
       </c>
       <c r="F1" s="0">
-        <v>-2.2829157459527991</v>
+        <v>-2.2822673601792145</v>
       </c>
       <c r="G1" s="0">
-        <v>2.5922535218099592</v>
+        <v>-1.5350421759138557</v>
       </c>
       <c r="H1" s="0">
-        <v>2.2858094988549369e-10</v>
+        <v>2.4215294378494486e-10</v>
       </c>
       <c r="I1" s="0">
-        <v>-7.4117373000371332e-09</v>
+        <v>-7.4485245466593294e-09</v>
       </c>
       <c r="J1" s="0">
-        <v>3.5094318962107205e-09</v>
+        <v>3.589435228670643e-09</v>
       </c>
       <c r="K1" s="0">
-        <v>-1.7043203115463257e-06</v>
+        <v>-4.1592866182327271e-06</v>
       </c>
       <c r="L1" s="0">
-        <v>9.2536211013793945e-06</v>
+        <v>9.1996043920516968e-06</v>
       </c>
       <c r="M1" s="0">
-        <v>216.65625</v>
+        <v>213</v>
       </c>
       <c r="N1" s="0">
-        <v>-32.15625</v>
+        <v>-81.125</v>
       </c>
       <c r="O1" s="0">
-        <v>2.7939677238464355e-08</v>
+        <v>2.1979212760925293e-07</v>
       </c>
       <c r="P1" s="0">
-        <v>-1.7881393432617188e-07</v>
+        <v>1.862645149230957e-09</v>
       </c>
       <c r="Q1" s="0">
-        <v>5153.6523818969727</v>
+        <v>5153.652400970459</v>
       </c>
       <c r="R1" s="0">
-        <v>-0.00057314196601510048</v>
+        <v>-0.00057371892035007477</v>
       </c>
       <c r="S1" s="0">
-        <v>-4.0927261579781771e-12</v>
+        <v>-3.9790393202565611e-12</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>590384</v>
+        <v>129600</v>
       </c>
       <c r="V1" s="0">
         <v>2.3283064365386963e-09</v>
@@ -161,70 +161,70 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="C2" s="0">
-        <v>0.014950867393054068</v>
+        <v>0.0090089843142777681</v>
       </c>
       <c r="D2" s="0">
-        <v>0.95865395509946227</v>
+        <v>0.9594530433789823</v>
       </c>
       <c r="E2" s="0">
-        <v>2.5551039387235654</v>
+        <v>2.4164538413790542</v>
       </c>
       <c r="F2" s="0">
-        <v>0.91323171364078493</v>
+        <v>1.5264680642534036</v>
       </c>
       <c r="G2" s="0">
-        <v>1.5808124704531981</v>
+        <v>-0.74301419651795964</v>
       </c>
       <c r="H2" s="0">
-        <v>-4.7144820913883076e-11</v>
+        <v>-2.4965325620306263e-10</v>
       </c>
       <c r="I2" s="0">
-        <v>-8.1135522477324377e-09</v>
+        <v>-8.0085478738787899e-09</v>
       </c>
       <c r="J2" s="0">
-        <v>4.6166208722185808e-09</v>
+        <v>4.3844683449911263e-09</v>
       </c>
       <c r="K2" s="0">
-        <v>2.8014183044433594e-06</v>
+        <v>3.4961849451065063e-06</v>
       </c>
       <c r="L2" s="0">
-        <v>9.7453594207763672e-06</v>
+        <v>1.0173767805099487e-05</v>
       </c>
       <c r="M2" s="0">
-        <v>195.71875</v>
+        <v>184.46875</v>
       </c>
       <c r="N2" s="0">
-        <v>53.25</v>
+        <v>68.1875</v>
       </c>
       <c r="O2" s="0">
-        <v>-3.9488077163696289e-07</v>
+        <v>-9.1269612312316895e-08</v>
       </c>
       <c r="P2" s="0">
-        <v>-1.4901161193847656e-08</v>
+        <v>9.4994902610778809e-08</v>
       </c>
       <c r="Q2" s="0">
-        <v>5153.6160774230957</v>
+        <v>5153.5909481048584</v>
       </c>
       <c r="R2" s="0">
-        <v>0.00016653025522828102</v>
+        <v>-0.00060521159321069718</v>
       </c>
       <c r="S2" s="0">
-        <v>7.8443918027915061e-12</v>
+        <v>-5.6843418860808015e-13</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="V2" s="0">
-        <v>-1.0244548320770264e-08</v>
+        <v>-1.257285475730896e-08</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -235,70 +235,70 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0056934554595500231</v>
+        <v>0.0098648873390629888</v>
       </c>
       <c r="D3" s="0">
-        <v>0.97225265639709801</v>
+        <v>0.97569739252418453</v>
       </c>
       <c r="E3" s="0">
-        <v>-1.7006747892798932</v>
+        <v>0.39977752639578656</v>
       </c>
       <c r="F3" s="0">
-        <v>-2.8569725376309538</v>
+        <v>1.0069786479711769</v>
       </c>
       <c r="G3" s="0">
-        <v>-1.5083626945949413</v>
+        <v>2.4653680375716625</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.2036632199898375e-10</v>
+        <v>3.4644300217020136e-10</v>
       </c>
       <c r="I3" s="0">
-        <v>-7.9756893623327492e-09</v>
+        <v>-7.7074639039514912e-09</v>
       </c>
       <c r="J3" s="0">
-        <v>4.1741024395496328e-09</v>
+        <v>4.4262557998920677e-09</v>
       </c>
       <c r="K3" s="0">
-        <v>-2.6375055313110352e-06</v>
+        <v>-8.9406967163085938e-08</v>
       </c>
       <c r="L3" s="0">
-        <v>5.7704746723175049e-06</v>
+        <v>7.0687383413314819e-06</v>
       </c>
       <c r="M3" s="0">
-        <v>275.125</v>
+        <v>250.21875</v>
       </c>
       <c r="N3" s="0">
-        <v>-49.34375</v>
+        <v>0.375</v>
       </c>
       <c r="O3" s="0">
-        <v>-1.4901161193847656e-08</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>-1.601874828338623e-07</v>
+        <v>-1.6391277313232422e-07</v>
       </c>
       <c r="Q3" s="0">
-        <v>5153.6539516448975</v>
+        <v>5153.6667060852051</v>
       </c>
       <c r="R3" s="0">
-        <v>-0.00047803297638893127</v>
+        <v>0.00069208675995469093</v>
       </c>
       <c r="S3" s="0">
-        <v>9.8907548817805946e-12</v>
+        <v>-9.0949470177292824e-13</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="V3" s="0">
-        <v>-8.3819031715393066e-09</v>
+        <v>-1.1175870895385742e-08</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -309,70 +309,70 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0059720342978835106</v>
+        <v>0.0063953509088605642</v>
       </c>
       <c r="D4" s="0">
-        <v>0.9870300541978887</v>
+        <v>0.9427361380470608</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.69441057344482537</v>
+        <v>2.3630725121867116</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.7660819888862012</v>
+        <v>-2.7652358121995455</v>
       </c>
       <c r="G4" s="0">
-        <v>-2.576318859255875</v>
+        <v>-0.92927339304112166</v>
       </c>
       <c r="H4" s="0">
-        <v>2.5358199127921956e-10</v>
+        <v>-3.8251593332400586e-10</v>
       </c>
       <c r="I4" s="0">
-        <v>-7.5406712420819192e-09</v>
+        <v>-8.0167625017652997e-09</v>
       </c>
       <c r="J4" s="0">
-        <v>3.6222937402166829e-09</v>
+        <v>4.6812664221080715e-09</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.8756836652755737e-06</v>
+        <v>2.1047890186309814e-06</v>
       </c>
       <c r="L4" s="0">
-        <v>9.3821436166763306e-06</v>
+        <v>9.8105520009994507e-06</v>
       </c>
       <c r="M4" s="0">
-        <v>212.78125</v>
+        <v>183.9375</v>
       </c>
       <c r="N4" s="0">
-        <v>-36.875</v>
+        <v>42.625</v>
       </c>
       <c r="O4" s="0">
-        <v>-2.4214386940002442e-08</v>
+        <v>2.1047890186309814e-07</v>
       </c>
       <c r="P4" s="0">
-        <v>-7.4505805969238281e-08</v>
+        <v>-4.4703483581542969e-08</v>
       </c>
       <c r="Q4" s="0">
-        <v>5153.6946430206299</v>
+        <v>5153.6472625732422</v>
       </c>
       <c r="R4" s="0">
-        <v>0.0005853273905813694</v>
+        <v>0.00072202924638986588</v>
       </c>
       <c r="S4" s="0">
-        <v>5.2295945351943374e-12</v>
+        <v>2.7284841053187847e-12</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="V4" s="0">
-        <v>-8.3819031715393066e-09</v>
+        <v>-7.9162418842315674e-09</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -383,70 +383,70 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="C5" s="0">
-        <v>0.01087154948618263</v>
+        <v>0.016617182758636773</v>
       </c>
       <c r="D5" s="0">
-        <v>0.92839636487509258</v>
+        <v>0.94201838508691194</v>
       </c>
       <c r="E5" s="0">
-        <v>2.3720627377285486</v>
+        <v>0.083706946570316451</v>
       </c>
       <c r="F5" s="0">
-        <v>0.68850869231635825</v>
+        <v>1.4893649770923236</v>
       </c>
       <c r="G5" s="0">
-        <v>2.4346970193835018</v>
+        <v>1.7373884154640746</v>
       </c>
       <c r="H5" s="0">
-        <v>-4.2144612635137899e-11</v>
+        <v>4.8359157210149758e-10</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.1485537056836547e-09</v>
+        <v>-8.1021232002381634e-09</v>
       </c>
       <c r="J5" s="0">
-        <v>5.2080740800472951e-09</v>
+        <v>5.1198561197008624e-09</v>
       </c>
       <c r="K5" s="0">
-        <v>2.1494925022125244e-06</v>
+        <v>-6.8172812461853027e-07</v>
       </c>
       <c r="L5" s="0">
-        <v>9.8161399364471436e-06</v>
+        <v>8.0280005931854248e-06</v>
       </c>
       <c r="M5" s="0">
-        <v>173.625</v>
+        <v>214.5625</v>
       </c>
       <c r="N5" s="0">
-        <v>42.3125</v>
+        <v>-8.40625</v>
       </c>
       <c r="O5" s="0">
-        <v>-1.4156103134155274e-07</v>
+        <v>8.5681676864624024e-08</v>
       </c>
       <c r="P5" s="0">
-        <v>-1.993030309677124e-07</v>
+        <v>-4.0791928768157959e-07</v>
       </c>
       <c r="Q5" s="0">
-        <v>5153.6829776763916</v>
+        <v>5153.6594486236572</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.00029412377625703812</v>
+        <v>0.00036737555637955666</v>
       </c>
       <c r="S5" s="0">
-        <v>-6.1390892369672656e-12</v>
+        <v>3.5242919693700969e-12</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="V5" s="0">
-        <v>6.5192580223083496e-09</v>
+        <v>-1.0710209608078003e-08</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -457,75 +457,371 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="C6" s="0">
-        <v>0.013956800103187561</v>
+        <v>0.012959538260474801</v>
       </c>
       <c r="D6" s="0">
-        <v>0.9541329296606057</v>
+        <v>0.96075099696395894</v>
       </c>
       <c r="E6" s="0">
-        <v>-2.782686749844002</v>
+        <v>-2.8321797759071976</v>
       </c>
       <c r="F6" s="0">
-        <v>0.85880654412258839</v>
+        <v>-1.1498535269176569</v>
       </c>
       <c r="G6" s="0">
-        <v>0.68465103439513586</v>
+        <v>2.619912833474169</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.4536319781780616e-10</v>
+        <v>5.500229106619692e-11</v>
       </c>
       <c r="I6" s="0">
-        <v>-8.6100014982649948e-09</v>
+        <v>-7.9189012825955719e-09</v>
       </c>
       <c r="J6" s="0">
-        <v>4.9394914639318398e-09</v>
+        <v>4.3187513218990465e-09</v>
       </c>
       <c r="K6" s="0">
-        <v>3.2465904951095581e-06</v>
+        <v>5.0496309995651245e-06</v>
       </c>
       <c r="L6" s="0">
-        <v>4.7422945499420166e-06</v>
+        <v>4.4051557779312134e-06</v>
       </c>
       <c r="M6" s="0">
-        <v>283.5</v>
+        <v>292</v>
       </c>
       <c r="N6" s="0">
-        <v>57.78125</v>
+        <v>94.375</v>
       </c>
       <c r="O6" s="0">
-        <v>-7.0780515670776367e-08</v>
+        <v>1.4714896678924561e-07</v>
       </c>
       <c r="P6" s="0">
-        <v>1.5273690223693848e-07</v>
+        <v>6.3329935073852539e-08</v>
       </c>
       <c r="Q6" s="0">
-        <v>5153.6659507751465</v>
+        <v>5153.5535545349121</v>
       </c>
       <c r="R6" s="0">
-        <v>-2.8498470783233643e-07</v>
+        <v>-1.0621733963489532e-06</v>
       </c>
       <c r="S6" s="0">
-        <v>-5.6843418860808015e-12</v>
+        <v>-1.2505552149377763e-11</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>590400</v>
+        <v>129600</v>
       </c>
       <c r="V6" s="0">
+        <v>-1.1175870895385742e-08</v>
+      </c>
+      <c r="W6" s="0">
+        <v>0</v>
+      </c>
+      <c r="X6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0">
+        <v>129600</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.010888506192713976</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.95992043253904536</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-2.7882482231016863</v>
+      </c>
+      <c r="F7" s="0">
+        <v>2.9046187144683233</v>
+      </c>
+      <c r="G7" s="0">
+        <v>-1.7690942141264243</v>
+      </c>
+      <c r="H7" s="0">
+        <v>2.8251176774910234e-10</v>
+      </c>
+      <c r="I7" s="0">
+        <v>-8.1717689584064003e-09</v>
+      </c>
+      <c r="J7" s="0">
+        <v>4.4458994752728525e-09</v>
+      </c>
+      <c r="K7" s="0">
+        <v>4.1779130697250366e-06</v>
+      </c>
+      <c r="L7" s="0">
+        <v>4.2673200368881226e-06</v>
+      </c>
+      <c r="M7" s="0">
+        <v>299.1875</v>
+      </c>
+      <c r="N7" s="0">
+        <v>79.5625</v>
+      </c>
+      <c r="O7" s="0">
+        <v>-8.9406967163085938e-08</v>
+      </c>
+      <c r="P7" s="0">
+        <v>-1.1548399925231934e-07</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>5153.7002220153809</v>
+      </c>
+      <c r="R7" s="0">
+        <v>0.00068055931478738785</v>
+      </c>
+      <c r="S7" s="0">
+        <v>2.0463630789890885e-12</v>
+      </c>
+      <c r="T7" s="0">
+        <v>0</v>
+      </c>
+      <c r="U7" s="0">
+        <v>129600</v>
+      </c>
+      <c r="V7" s="0">
+        <v>-1.5366822481155396e-08</v>
+      </c>
+      <c r="W7" s="0">
+        <v>0</v>
+      </c>
+      <c r="X7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0">
+        <v>129600</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.012377027538605034</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.95807601468306691</v>
+      </c>
+      <c r="E8" s="0">
+        <v>2.4368800998489943</v>
+      </c>
+      <c r="F8" s="0">
+        <v>-1.0037052517353702</v>
+      </c>
+      <c r="G8" s="0">
+        <v>-3.0028719250974967</v>
+      </c>
+      <c r="H8" s="0">
+        <v>-3.4037132068886797e-10</v>
+      </c>
+      <c r="I8" s="0">
+        <v>-7.5624578638678795e-09</v>
+      </c>
+      <c r="J8" s="0">
+        <v>4.213746948045398e-09</v>
+      </c>
+      <c r="K8" s="0">
+        <v>3.1869858503341675e-06</v>
+      </c>
+      <c r="L8" s="0">
+        <v>1.019798219203949e-05</v>
+      </c>
+      <c r="M8" s="0">
+        <v>182.5</v>
+      </c>
+      <c r="N8" s="0">
+        <v>61.875</v>
+      </c>
+      <c r="O8" s="0">
+        <v>6.1467289924621582e-08</v>
+      </c>
+      <c r="P8" s="0">
+        <v>9.8720192909240723e-08</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>5153.6392707824707</v>
+      </c>
+      <c r="R8" s="0">
+        <v>-6.9314613938331604e-05</v>
+      </c>
+      <c r="S8" s="0">
+        <v>3.751665644813329e-12</v>
+      </c>
+      <c r="T8" s="0">
+        <v>0</v>
+      </c>
+      <c r="U8" s="0">
+        <v>129600</v>
+      </c>
+      <c r="V8" s="0">
+        <v>-1.1175870895385742e-08</v>
+      </c>
+      <c r="W8" s="0">
+        <v>0</v>
+      </c>
+      <c r="X8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0">
+        <v>129584</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.0059738821582868695</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.98704871225507163</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-0.81592486618000759</v>
+      </c>
+      <c r="F9" s="0">
+        <v>-2.7651365415045226</v>
+      </c>
+      <c r="G9" s="0">
+        <v>-0.42592069463225124</v>
+      </c>
+      <c r="H9" s="0">
+        <v>1.6072098038823775e-10</v>
+      </c>
+      <c r="I9" s="0">
+        <v>-7.690320332710079e-09</v>
+      </c>
+      <c r="J9" s="0">
+        <v>3.8040870269224899e-09</v>
+      </c>
+      <c r="K9" s="0">
+        <v>-4.0475279092788696e-06</v>
+      </c>
+      <c r="L9" s="0">
+        <v>9.5907598733901978e-06</v>
+      </c>
+      <c r="M9" s="0">
+        <v>207.6875</v>
+      </c>
+      <c r="N9" s="0">
+        <v>-79.90625</v>
+      </c>
+      <c r="O9" s="0">
+        <v>6.7055225372314453e-08</v>
+      </c>
+      <c r="P9" s="0">
+        <v>8.3819031715393066e-08</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>5153.6959629058838</v>
+      </c>
+      <c r="R9" s="0">
+        <v>0.00058607570827007294</v>
+      </c>
+      <c r="S9" s="0">
+        <v>5.2295945351943374e-12</v>
+      </c>
+      <c r="T9" s="0">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0">
+        <v>129584</v>
+      </c>
+      <c r="V9" s="0">
+        <v>-8.3819031715393066e-09</v>
+      </c>
+      <c r="W9" s="0">
+        <v>0</v>
+      </c>
+      <c r="X9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0">
+        <v>129600</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.017790362937375903</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.93430654660074153</v>
+      </c>
+      <c r="E10" s="0">
+        <v>1.1915506259634861</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1.1238012644106379</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.87100899836950152</v>
+      </c>
+      <c r="H10" s="0">
+        <v>-3.6537236208259384e-10</v>
+      </c>
+      <c r="I10" s="0">
+        <v>-8.7432213331201334e-09</v>
+      </c>
+      <c r="J10" s="0">
+        <v>5.6209484207779684e-09</v>
+      </c>
+      <c r="K10" s="0">
+        <v>-5.7928264141082764e-07</v>
+      </c>
+      <c r="L10" s="0">
+        <v>6.6179782152175903e-06</v>
+      </c>
+      <c r="M10" s="0">
+        <v>242.3125</v>
+      </c>
+      <c r="N10" s="0">
+        <v>-13.125</v>
+      </c>
+      <c r="O10" s="0">
+        <v>-2.2351741790771484e-07</v>
+      </c>
+      <c r="P10" s="0">
+        <v>1.1734664440155029e-07</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>5153.6492481231689</v>
+      </c>
+      <c r="R10" s="0">
+        <v>-0.0002009999006986618</v>
+      </c>
+      <c r="S10" s="0">
+        <v>1.4097167877480388e-11</v>
+      </c>
+      <c r="T10" s="0">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0">
+        <v>129600</v>
+      </c>
+      <c r="V10" s="0">
         <v>2.3283064365386963e-09</v>
       </c>
-      <c r="W6" s="0">
-        <v>0</v>
-      </c>
-      <c r="X6" s="0">
+      <c r="W10" s="0">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0">
         <v>0</v>
       </c>
     </row>
